--- a/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
+++ b/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>The player of the role is the primary caretaker of the scoping person.</t>
+  </si>
+  <si>
+    <t>PROCON</t>
+  </si>
+  <si>
+    <t>Professional contact</t>
+  </si>
+  <si>
+    <t>A professional acting as a contact of the scoping person.</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,6 +520,20 @@
         <v>45</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
+++ b/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
+++ b/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
+++ b/fhir/core/CodeSystem-dk-relatedperson-relationshipcodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
